--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -12,159 +12,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">stargazer(mod1, mod2, mod3, mod4, mod5, mod6, mod7, mod8, mod9, mod10, type = "text", omit = c("oficio"), digits = 3)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t xml:space="preserve">stargazer(mod6, mod7, mod8, mod9, mod10, type = "latex", omit = c("oficio"), digits = 3)</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">======================================================================================================================================================================================================================================================================================</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                            Dependent variable:                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                               log_salario_m                                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            (1)                   (2)                      (3)                       (4)                        (5)                        (6)                        (7)                        (8)                        (9)                        (10)           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edad                                           0.082***                                            0.033***                   0.034***                   0.035***                   0.034***                   0.036***                   0.033***                   0.033***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                (0.004)                                            (0.003)                    (0.004)                    (0.004)                    (0.004)                    (0.004)                    (0.004)                    (0.004)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">edad_2                                         -0.001***                                          -0.0003***                 -0.0003***                 -0.0003***                 -0.0003***                 -0.0004***                 -0.0003***                 -0.0004***        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               (0.0001)                                           (0.00004)                   (0.0001)                   (0.0001)                  (0.00005)                  (0.00005)                  (0.00005)                  (0.00005)         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">superior                                                                                           0.297***                   0.296***                   0.392***                   0.375***                   0.308***                   0.309***                   0.306***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                   (0.016)                    (0.016)                    (0.021)                    (0.020)                    (0.020)                    (0.020)                    (0.019)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">horas_trab_usual                                                                                   0.013***                   0.013***                   0.013***                   0.012***                   0.012***                   0.012***                   0.041***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                   (0.001)                    (0.001)                    (0.001)                    (0.0005)                   (0.0005)                   (0.0005)                   (0.002)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">informal                                                                                          -0.471***                  -0.470***                  -0.456***                  -0.426***                  -0.418***                  -0.414***                  -0.335***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                   (0.016)                    (0.016)                    (0.016)                    (0.016)                    (0.015)                    (0.015)                    (0.015)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">media                                                                                                                                                    0.123***                   0.110***                   0.096***                   0.097***                   0.087***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                         (0.018)                    (0.017)                    (0.016)                    (0.016)                    (0.016)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_trab_actual                                                                                                                                                                     0.001***                   0.001***                   0.002***                   0.002***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                    (0.0001)                   (0.0001)                   (0.0002)                   (0.0002)         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(estrato)2                                                                                                                                                                                                0.004                      0.004                      0.008           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                               (0.018)                    (0.018)                    (0.018)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(estrato)3                                                                                                                                                                                               0.065***                   0.064***                   0.072***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                               (0.020)                    (0.020)                    (0.019)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(estrato)4                                                                                                                                                                                               0.470***                   0.474***                   0.489***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                               (0.030)                    (0.030)                    (0.029)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(estrato)5                                                                                                                                                                                               0.605***                   0.606***                   0.616***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                               (0.044)                    (0.044)                    (0.043)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor(estrato)6                                                                                                                                                                                               0.946***                   0.953***                   0.959***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                               (0.042)                    (0.042)                    (0.041)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I(exp_trab_actual2)                                                                                                                                                                                                                     -0.00000***                -0.00000***        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                         (0.00000)                  (0.00000)         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I(horas_trab_usual2)                                                                                                                                                                                                                                                -0.0003***        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                    (0.00001)         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mujer:edad                                                                                                                     -0.001                     -0.002                     0.001                      0.002                      0.001                      -0.003          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                              (0.006)                    (0.006)                    (0.006)                    (0.005)                    (0.005)                    (0.005)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mujer:edad_2                                                                                                                  0.00000                    0.00001                    -0.00004                   -0.0001                    -0.00004                   0.00000          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                              (0.0001)                   (0.0001)                   (0.0001)                   (0.0001)                   (0.0001)                   (0.0001)         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mujer                                                                   -0.139***                 -0.091***                    -0.051                     -0.032                     -0.073                     -0.074                     -0.055                     0.003           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                         (0.017)                   (0.014)                    (0.109)                    (0.109)                    (0.107)                    (0.101)                    (0.101)                    (0.098)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant                 14.021***             12.424***                14.090***                 13.776***                  13.753***                  13.614***                  13.592***                  13.351***                  13.394***                  12.730***         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          (0.009)               (0.081)                  (0.012)                   (0.180)                    (0.187)                    (0.188)                    (0.185)                    (0.174)                    (0.174)                    (0.173)          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observations               6,925                 6,925                    6,925                     6,925                      6,925                      6,925                      6,925                      6,925                      6,925                      6,925           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2                         0.000                 0.056                    0.009                     0.586                      0.586                      0.589                      0.602                      0.650                      0.651                      0.669           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjusted R2                0.000                 0.055                    0.009                     0.581                      0.581                      0.584                      0.597                      0.645                      0.646                      0.665           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual Std. Error  0.731 (df = 6924)     0.711 (df = 6922)        0.728 (df = 6923)         0.473 (df = 6840)          0.473 (df = 6838)          0.472 (df = 6837)          0.464 (df = 6836)          0.436 (df = 6831)          0.435 (df = 6830)          0.424 (df = 6829)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">F Statistic                            204.238*** (df = 2; 6922) 63.286*** (df = 1; 6923) 115.389*** (df = 84; 6840) 112.708*** (df = 86; 6838) 112.770*** (df = 87; 6837) 117.593*** (df = 88; 6836) 136.290*** (df = 93; 6831) 135.336*** (df = 94; 6830) 145.368*** (df = 95; 6829)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note:                                                                                                                                                                                                                                                      *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
+    <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 12:35:28 a. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\begin{table}[!htbp] \centering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \caption{} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \label{} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\begin{tabular}{@{\extracolsep{5pt}}lccccc} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\[-1.8ex]\hline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\hline \\[-1.8ex] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; \multicolumn{5}{c}{\textit{Dependent variable:}} \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cline{2-6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\[-1.8ex] &amp; \multicolumn{5}{c}{log\_salario\_m} \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\[-1.8ex] &amp; (1) &amp; (2) &amp; (3) &amp; (4) &amp; (5)\\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mujer &amp; $-$0.032 &amp; $-$0.073 &amp; $-$0.074 &amp; $-$0.055 &amp; 0.003 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.109) &amp; (0.107) &amp; (0.101) &amp; (0.101) &amp; (0.098) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; &amp; &amp; &amp; &amp; \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edad &amp; 0.035$^{***}$ &amp; 0.034$^{***}$ &amp; 0.036$^{***}$ &amp; 0.033$^{***}$ &amp; 0.033$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.004) &amp; (0.004) &amp; (0.004) &amp; (0.004) &amp; (0.004) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edad\_2 &amp; $-$0.0003$^{***}$ &amp; $-$0.0003$^{***}$ &amp; $-$0.0004$^{***}$ &amp; $-$0.0003$^{***}$ &amp; $-$0.0004$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.0001) &amp; (0.00005) &amp; (0.00005) &amp; (0.00005) &amp; (0.00005) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> superior &amp; 0.392$^{***}$ &amp; 0.375$^{***}$ &amp; 0.308$^{***}$ &amp; 0.309$^{***}$ &amp; 0.306$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.021) &amp; (0.020) &amp; (0.020) &amp; (0.020) &amp; (0.019) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> horas\_trab\_usual &amp; 0.013$^{***}$ &amp; 0.012$^{***}$ &amp; 0.012$^{***}$ &amp; 0.012$^{***}$ &amp; 0.041$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.001) &amp; (0.0005) &amp; (0.0005) &amp; (0.0005) &amp; (0.002) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> informal &amp; $-$0.456$^{***}$ &amp; $-$0.426$^{***}$ &amp; $-$0.418$^{***}$ &amp; $-$0.414$^{***}$ &amp; $-$0.335$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.016) &amp; (0.016) &amp; (0.015) &amp; (0.015) &amp; (0.015) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> media &amp; 0.123$^{***}$ &amp; 0.110$^{***}$ &amp; 0.096$^{***}$ &amp; 0.097$^{***}$ &amp; 0.087$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.018) &amp; (0.017) &amp; (0.016) &amp; (0.016) &amp; (0.016) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exp\_trab\_actual &amp;  &amp; 0.001$^{***}$ &amp; 0.001$^{***}$ &amp; 0.002$^{***}$ &amp; 0.002$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp; (0.0001) &amp; (0.0001) &amp; (0.0002) &amp; (0.0002) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> factor(estrato)2 &amp;  &amp;  &amp; 0.004 &amp; 0.004 &amp; 0.008 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp; (0.018) &amp; (0.018) &amp; (0.018) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> factor(estrato)3 &amp;  &amp;  &amp; 0.065$^{***}$ &amp; 0.064$^{***}$ &amp; 0.072$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp; (0.020) &amp; (0.020) &amp; (0.019) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> factor(estrato)4 &amp;  &amp;  &amp; 0.470$^{***}$ &amp; 0.474$^{***}$ &amp; 0.489$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp; (0.030) &amp; (0.030) &amp; (0.029) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> factor(estrato)5 &amp;  &amp;  &amp; 0.605$^{***}$ &amp; 0.606$^{***}$ &amp; 0.616$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp; (0.044) &amp; (0.044) &amp; (0.043) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> factor(estrato)6 &amp;  &amp;  &amp; 0.946$^{***}$ &amp; 0.953$^{***}$ &amp; 0.959$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp; (0.042) &amp; (0.042) &amp; (0.041) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I(exp\_trab\_actual$\hat{\mkern6mu}$2) &amp;  &amp;  &amp;  &amp; $-$0.00000$^{***}$ &amp; $-$0.00000$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp;  &amp; (0.00000) &amp; (0.00000) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I(horas\_trab\_usual$\hat{\mkern6mu}$2) &amp;  &amp;  &amp;  &amp;  &amp; $-$0.0003$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp;  &amp;  &amp;  &amp;  &amp; (0.00001) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mujer:edad &amp; $-$0.002 &amp; 0.001 &amp; 0.002 &amp; 0.001 &amp; $-$0.003 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.006) &amp; (0.006) &amp; (0.005) &amp; (0.005) &amp; (0.005) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mujer:edad\_2 &amp; 0.00001 &amp; $-$0.00004 &amp; $-$0.0001 &amp; $-$0.00004 &amp; 0.00000 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.0001) &amp; (0.0001) &amp; (0.0001) &amp; (0.0001) &amp; (0.0001) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Constant &amp; 13.614$^{***}$ &amp; 13.592$^{***}$ &amp; 13.351$^{***}$ &amp; 13.394$^{***}$ &amp; 12.730$^{***}$ \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &amp; (0.188) &amp; (0.185) &amp; (0.174) &amp; (0.174) &amp; (0.173) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observations &amp; 6,925 &amp; 6,925 &amp; 6,925 &amp; 6,925 &amp; 6,925 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$^{2}$ &amp; 0.589 &amp; 0.602 &amp; 0.650 &amp; 0.651 &amp; 0.669 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R$^{2}$ &amp; 0.584 &amp; 0.597 &amp; 0.645 &amp; 0.646 &amp; 0.665 \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual Std. Error &amp; 0.472 (df = 6837) &amp; 0.464 (df = 6836) &amp; 0.436 (df = 6831) &amp; 0.435 (df = 6830) &amp; 0.424 (df = 6829) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F Statistic &amp; 112.770$^{***}$ (df = 87; 6837) &amp; 117.593$^{***}$ (df = 88; 6836) &amp; 136.290$^{***}$ (df = 93; 6831) &amp; 135.336$^{***}$ (df = 94; 6830) &amp; 145.368$^{***}$ (df = 95; 6829) \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\hline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textit{Note:}  &amp; \multicolumn{5}{r}{$^{*}$p$&lt;$0.1; $^{**}$p$&lt;$0.05; $^{***}$p$&lt;$0.01} \\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\end{tabular} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\end{table} </t>
   </si>
 </sst>
 </file>
@@ -563,12 +590,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -578,272 +605,322 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 12:35:28 a. m.</t>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 1:00:52 a. m.</t>
   </si>
   <si>
     <t xml:space="preserve">\begin{table}[!htbp] \centering </t>

--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 1:00:52 a. m.</t>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:11:02 a. m.</t>
   </si>
   <si>
     <t xml:space="preserve">\begin{table}[!htbp] \centering </t>

--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:11:02 a. m.</t>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:42:39 a. m.</t>
   </si>
   <si>
     <t xml:space="preserve">\begin{table}[!htbp] \centering </t>

--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:42:39 a. m.</t>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:44:57 a. m.</t>
   </si>
   <si>
     <t xml:space="preserve">\begin{table}[!htbp] \centering </t>

--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:44:57 a. m.</t>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:48:24 a. m.</t>
   </si>
   <si>
     <t xml:space="preserve">\begin{table}[!htbp] \centering </t>

--- a/views/Salida_punto5.xlsx
+++ b/views/Salida_punto5.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">% Table created by stargazer v.5.2.3 by Marek Hlavac, Social Policy Institute. E-mail: marek.hlavac at gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:48:24 a. m.</t>
+    <t xml:space="preserve">% Date and time: dom., feb. 12, 2023 - 11:52:12 a. m.</t>
   </si>
   <si>
     <t xml:space="preserve">\begin{table}[!htbp] \centering </t>
